--- a/result/TrailATRf/summary_NSDQ_M15_2017-2024_0.xlsx
+++ b/result/TrailATRf/summary_NSDQ_M15_2017-2024_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
   <si>
     <t>count</t>
   </si>
@@ -437,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,10 +507,10 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -525,57 +525,57 @@
         <v>2024</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H2">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="I2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J2">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L2">
-        <v>-55179.49999999985</v>
+        <v>-13576.29999999999</v>
       </c>
       <c r="M2">
-        <v>-28298.59999999993</v>
+        <v>-7677.499999999979</v>
       </c>
       <c r="N2">
-        <v>1939</v>
+        <v>2110</v>
       </c>
       <c r="O2">
-        <v>-26880.89999999992</v>
+        <v>-5898.800000000013</v>
       </c>
       <c r="P2">
-        <v>-7426.900000000001</v>
+        <v>-7417.3</v>
       </c>
       <c r="Q2">
-        <v>930</v>
+        <v>1207.099999999999</v>
       </c>
       <c r="R2">
-        <v>-13.86328004125834</v>
+        <v>-2.795639810426546</v>
       </c>
       <c r="S2">
-        <v>261.8529784903538</v>
+        <v>202.8654597934239</v>
       </c>
       <c r="T2">
-        <v>-19</v>
+        <v>-11.20000000000073</v>
       </c>
       <c r="U2">
-        <v>0.3182052604435276</v>
+        <v>0.3706161137440758</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -590,57 +590,57 @@
         <v>2024</v>
       </c>
       <c r="G3">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H3">
-        <v>2.600000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="I3">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="J3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="K3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L3">
-        <v>-63452.09999999981</v>
+        <v>-46423.09999999996</v>
       </c>
       <c r="M3">
-        <v>-32104.99999999991</v>
+        <v>-24879.89999999998</v>
       </c>
       <c r="N3">
-        <v>2858</v>
+        <v>2295</v>
       </c>
       <c r="O3">
-        <v>-31347.0999999999</v>
+        <v>-21543.19999999999</v>
       </c>
       <c r="P3">
-        <v>-7620.400000000001</v>
+        <v>-7434.200000000001</v>
       </c>
       <c r="Q3">
-        <v>823.3999999999996</v>
+        <v>1153.199999999999</v>
       </c>
       <c r="R3">
-        <v>-10.96819454163747</v>
+        <v>-9.387015250544657</v>
       </c>
       <c r="S3">
-        <v>208.2075814410188</v>
+        <v>291.3721707807222</v>
       </c>
       <c r="T3">
-        <v>-23.10000000000036</v>
+        <v>-17.70000000000073</v>
       </c>
       <c r="U3">
-        <v>0.2078376487053884</v>
+        <v>0.3289760348583878</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -655,57 +655,57 @@
         <v>2024</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H4">
-        <v>3.2</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="I4">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J4">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L4">
-        <v>-70600.3</v>
+        <v>-47193.29999999995</v>
       </c>
       <c r="M4">
-        <v>-40228.49999999996</v>
+        <v>-23868.99999999998</v>
       </c>
       <c r="N4">
-        <v>1521</v>
+        <v>1454</v>
       </c>
       <c r="O4">
-        <v>-30371.80000000004</v>
+        <v>-23324.29999999997</v>
       </c>
       <c r="P4">
-        <v>-7677.400000000001</v>
+        <v>-7439.1</v>
       </c>
       <c r="Q4">
-        <v>1168.4</v>
+        <v>886</v>
       </c>
       <c r="R4">
-        <v>-19.9683103221565</v>
+        <v>-16.04147180192571</v>
       </c>
       <c r="S4">
-        <v>455.0933834946008</v>
+        <v>284.3828993059204</v>
       </c>
       <c r="T4">
-        <v>-15.69999999999982</v>
+        <v>-23.35000000000036</v>
       </c>
       <c r="U4">
-        <v>0.3905325443786982</v>
+        <v>0.1678129298486933</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -720,57 +720,57 @@
         <v>2024</v>
       </c>
       <c r="G5">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H5">
-        <v>3.600000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="I5">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J5">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="K5">
         <v>5</v>
       </c>
       <c r="L5">
-        <v>-73643.7000000001</v>
+        <v>-55179.49999999985</v>
       </c>
       <c r="M5">
-        <v>-37764.10000000006</v>
+        <v>-28298.59999999993</v>
       </c>
       <c r="N5">
-        <v>2389</v>
+        <v>1939</v>
       </c>
       <c r="O5">
-        <v>-35879.60000000003</v>
+        <v>-26880.89999999992</v>
       </c>
       <c r="P5">
-        <v>-7625.6</v>
+        <v>-7426.900000000001</v>
       </c>
       <c r="Q5">
-        <v>881.8000000000011</v>
+        <v>930</v>
       </c>
       <c r="R5">
-        <v>-15.01866889912099</v>
+        <v>-13.86328004125834</v>
       </c>
       <c r="S5">
-        <v>328.0857143357193</v>
+        <v>261.8529784903538</v>
       </c>
       <c r="T5">
-        <v>-13.69999999999982</v>
+        <v>-19</v>
       </c>
       <c r="U5">
-        <v>0.4030975303474257</v>
+        <v>0.3182052604435276</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -785,57 +785,57 @@
         <v>2024</v>
       </c>
       <c r="G6">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>2.600000000000001</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="J6">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L6">
-        <v>-82648.39999999983</v>
+        <v>-60494.69999999997</v>
       </c>
       <c r="M6">
-        <v>-42810.09999999992</v>
+        <v>-32292.89999999999</v>
       </c>
       <c r="N6">
-        <v>2528</v>
+        <v>1347</v>
       </c>
       <c r="O6">
-        <v>-39838.29999999992</v>
+        <v>-28201.79999999997</v>
       </c>
       <c r="P6">
-        <v>-7628.8</v>
+        <v>-7463.900000000001</v>
       </c>
       <c r="Q6">
-        <v>846.2000000000007</v>
+        <v>1263.1</v>
       </c>
       <c r="R6">
-        <v>-15.75882120253161</v>
+        <v>-20.93674832962136</v>
       </c>
       <c r="S6">
-        <v>353.0610018534776</v>
+        <v>429.1239366256802</v>
       </c>
       <c r="T6">
-        <v>-10.70000000000073</v>
+        <v>-20.60000000000036</v>
       </c>
       <c r="U6">
-        <v>0.4177215189873418</v>
+        <v>0.3734224201930215</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -850,57 +850,57 @@
         <v>2024</v>
       </c>
       <c r="G7">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H7">
-        <v>3.8</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="I7">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="J7">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L7">
-        <v>-89127.10000000019</v>
+        <v>-63452.09999999981</v>
       </c>
       <c r="M7">
-        <v>-44839.4000000001</v>
+        <v>-32104.99999999991</v>
       </c>
       <c r="N7">
-        <v>2708</v>
+        <v>2858</v>
       </c>
       <c r="O7">
-        <v>-44287.7000000001</v>
+        <v>-31347.0999999999</v>
       </c>
       <c r="P7">
-        <v>-7626.5</v>
+        <v>-7620.400000000001</v>
       </c>
       <c r="Q7">
-        <v>817.8000000000011</v>
+        <v>823.3999999999996</v>
       </c>
       <c r="R7">
-        <v>-16.35439438700151</v>
+        <v>-10.96819454163747</v>
       </c>
       <c r="S7">
-        <v>261.8041052513876</v>
+        <v>208.2075814410188</v>
       </c>
       <c r="T7">
-        <v>-40.70000000000027</v>
+        <v>-23.10000000000036</v>
       </c>
       <c r="U7">
-        <v>0.2562776957163959</v>
+        <v>0.2078376487053884</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -915,57 +915,57 @@
         <v>2024</v>
       </c>
       <c r="G8">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H8">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="I8">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="J8">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L8">
-        <v>-89889.30000000005</v>
+        <v>-70600.3</v>
       </c>
       <c r="M8">
-        <v>-47394.20000000005</v>
+        <v>-40228.49999999996</v>
       </c>
       <c r="N8">
-        <v>1989</v>
+        <v>1521</v>
       </c>
       <c r="O8">
-        <v>-42495.09999999999</v>
+        <v>-30371.80000000004</v>
       </c>
       <c r="P8">
-        <v>-7625</v>
+        <v>-7677.400000000001</v>
       </c>
       <c r="Q8">
-        <v>1072</v>
+        <v>1168.4</v>
       </c>
       <c r="R8">
-        <v>-21.36505781799899</v>
+        <v>-19.9683103221565</v>
       </c>
       <c r="S8">
-        <v>429.6364550758876</v>
+        <v>455.0933834946008</v>
       </c>
       <c r="T8">
-        <v>-15.59999999999854</v>
+        <v>-15.69999999999982</v>
       </c>
       <c r="U8">
-        <v>0.3966817496229261</v>
+        <v>0.3905325443786982</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -983,45 +983,500 @@
         <v>60</v>
       </c>
       <c r="H9">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="I9">
+        <v>50</v>
+      </c>
+      <c r="J9">
+        <v>180</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>-73643.7000000001</v>
+      </c>
+      <c r="M9">
+        <v>-37764.10000000006</v>
+      </c>
+      <c r="N9">
+        <v>2389</v>
+      </c>
+      <c r="O9">
+        <v>-35879.60000000003</v>
+      </c>
+      <c r="P9">
+        <v>-7625.6</v>
+      </c>
+      <c r="Q9">
+        <v>881.8000000000011</v>
+      </c>
+      <c r="R9">
+        <v>-15.01866889912099</v>
+      </c>
+      <c r="S9">
+        <v>328.0857143357193</v>
+      </c>
+      <c r="T9">
+        <v>-13.69999999999982</v>
+      </c>
+      <c r="U9">
+        <v>0.4030975303474257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2017</v>
+      </c>
+      <c r="F10">
+        <v>2024</v>
+      </c>
+      <c r="G10">
+        <v>55</v>
+      </c>
+      <c r="H10">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="I10">
+        <v>30</v>
+      </c>
+      <c r="J10">
+        <v>200</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>-82648.39999999983</v>
+      </c>
+      <c r="M10">
+        <v>-42810.09999999992</v>
+      </c>
+      <c r="N10">
+        <v>2528</v>
+      </c>
+      <c r="O10">
+        <v>-39838.29999999992</v>
+      </c>
+      <c r="P10">
+        <v>-7628.8</v>
+      </c>
+      <c r="Q10">
+        <v>846.2000000000007</v>
+      </c>
+      <c r="R10">
+        <v>-15.75882120253161</v>
+      </c>
+      <c r="S10">
+        <v>353.0610018534776</v>
+      </c>
+      <c r="T10">
+        <v>-10.70000000000073</v>
+      </c>
+      <c r="U10">
+        <v>0.4177215189873418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="1">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2017</v>
+      </c>
+      <c r="F11">
+        <v>2024</v>
+      </c>
+      <c r="G11">
+        <v>55</v>
+      </c>
+      <c r="H11">
+        <v>2.2</v>
+      </c>
+      <c r="I11">
+        <v>65</v>
+      </c>
+      <c r="J11">
+        <v>60</v>
+      </c>
+      <c r="K11">
         <v>3</v>
       </c>
-      <c r="I9">
+      <c r="L11">
+        <v>-83554.19999999998</v>
+      </c>
+      <c r="M11">
+        <v>-42085.99999999999</v>
+      </c>
+      <c r="N11">
+        <v>3652</v>
+      </c>
+      <c r="O11">
+        <v>-41468.2</v>
+      </c>
+      <c r="P11">
+        <v>-7462.5</v>
+      </c>
+      <c r="Q11">
+        <v>871.8999999999996</v>
+      </c>
+      <c r="R11">
+        <v>-11.35492880613362</v>
+      </c>
+      <c r="S11">
+        <v>228.1535023762996</v>
+      </c>
+      <c r="T11">
+        <v>-16.10000000000036</v>
+      </c>
+      <c r="U11">
+        <v>0.3006571741511501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2017</v>
+      </c>
+      <c r="F12">
+        <v>2024</v>
+      </c>
+      <c r="G12">
         <v>5</v>
       </c>
-      <c r="J9">
-        <v>20</v>
-      </c>
-      <c r="K9">
+      <c r="H12">
+        <v>1.6</v>
+      </c>
+      <c r="I12">
+        <v>35</v>
+      </c>
+      <c r="J12">
+        <v>80</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>-88768.59999999953</v>
+      </c>
+      <c r="M12">
+        <v>-45973.49999999978</v>
+      </c>
+      <c r="N12">
+        <v>16640</v>
+      </c>
+      <c r="O12">
+        <v>-42795.09999999974</v>
+      </c>
+      <c r="P12">
+        <v>-7631.900000000001</v>
+      </c>
+      <c r="Q12">
+        <v>908.3999999999996</v>
+      </c>
+      <c r="R12">
+        <v>-2.571820913461523</v>
+      </c>
+      <c r="S12">
+        <v>150.0392407479868</v>
+      </c>
+      <c r="T12">
+        <v>-5</v>
+      </c>
+      <c r="U12">
+        <v>0.2408052884615385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2017</v>
+      </c>
+      <c r="F13">
+        <v>2024</v>
+      </c>
+      <c r="G13">
+        <v>75</v>
+      </c>
+      <c r="H13">
+        <v>3.8</v>
+      </c>
+      <c r="I13">
+        <v>60</v>
+      </c>
+      <c r="J13">
+        <v>40</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>-89127.10000000019</v>
+      </c>
+      <c r="M13">
+        <v>-44839.4000000001</v>
+      </c>
+      <c r="N13">
+        <v>2708</v>
+      </c>
+      <c r="O13">
+        <v>-44287.7000000001</v>
+      </c>
+      <c r="P13">
+        <v>-7626.5</v>
+      </c>
+      <c r="Q13">
+        <v>817.8000000000011</v>
+      </c>
+      <c r="R13">
+        <v>-16.35439438700151</v>
+      </c>
+      <c r="S13">
+        <v>261.8041052513876</v>
+      </c>
+      <c r="T13">
+        <v>-40.70000000000027</v>
+      </c>
+      <c r="U13">
+        <v>0.2562776957163959</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="1">
         <v>2</v>
       </c>
-      <c r="L9">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2017</v>
+      </c>
+      <c r="F14">
+        <v>2024</v>
+      </c>
+      <c r="G14">
+        <v>35</v>
+      </c>
+      <c r="H14">
+        <v>3.8</v>
+      </c>
+      <c r="I14">
+        <v>55</v>
+      </c>
+      <c r="J14">
+        <v>160</v>
+      </c>
+      <c r="K14">
+        <v>6</v>
+      </c>
+      <c r="L14">
+        <v>-89889.30000000005</v>
+      </c>
+      <c r="M14">
+        <v>-47394.20000000005</v>
+      </c>
+      <c r="N14">
+        <v>1989</v>
+      </c>
+      <c r="O14">
+        <v>-42495.09999999999</v>
+      </c>
+      <c r="P14">
+        <v>-7625</v>
+      </c>
+      <c r="Q14">
+        <v>1072</v>
+      </c>
+      <c r="R14">
+        <v>-21.36505781799899</v>
+      </c>
+      <c r="S14">
+        <v>429.6364550758876</v>
+      </c>
+      <c r="T14">
+        <v>-15.59999999999854</v>
+      </c>
+      <c r="U14">
+        <v>0.3966817496229261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2017</v>
+      </c>
+      <c r="F15">
+        <v>2024</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+      <c r="H15">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
+      <c r="J15">
+        <v>120</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>-107596.3</v>
+      </c>
+      <c r="M15">
+        <v>-57168.8</v>
+      </c>
+      <c r="N15">
+        <v>4309</v>
+      </c>
+      <c r="O15">
+        <v>-50427.50000000002</v>
+      </c>
+      <c r="P15">
+        <v>-7621.400000000001</v>
+      </c>
+      <c r="Q15">
+        <v>828.6000000000004</v>
+      </c>
+      <c r="R15">
+        <v>-11.70283128336041</v>
+      </c>
+      <c r="S15">
+        <v>314.3161004933528</v>
+      </c>
+      <c r="T15">
+        <v>-9.200000000000728</v>
+      </c>
+      <c r="U15">
+        <v>0.3984683221165004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>2017</v>
+      </c>
+      <c r="F16">
+        <v>2024</v>
+      </c>
+      <c r="G16">
+        <v>60</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>20</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
         <v>-114205.1999999998</v>
       </c>
-      <c r="M9">
+      <c r="M16">
         <v>-57102.5999999999</v>
       </c>
-      <c r="N9">
+      <c r="N16">
         <v>4629</v>
       </c>
-      <c r="O9">
+      <c r="O16">
         <v>-57102.5999999999</v>
       </c>
-      <c r="P9">
+      <c r="P16">
         <v>-7611.900000000001</v>
       </c>
-      <c r="Q9">
+      <c r="Q16">
         <v>883.8999999999996</v>
       </c>
-      <c r="R9">
+      <c r="R16">
         <v>-12.33583927414126</v>
       </c>
-      <c r="S9">
+      <c r="S16">
         <v>199.665736961471</v>
       </c>
-      <c r="T9">
+      <c r="T16">
         <v>-22.89999999999964</v>
       </c>
-      <c r="U9">
+      <c r="U16">
         <v>0.2603154028947937</v>
       </c>
     </row>
